--- a/Batter_stats.xlsx
+++ b/Batter_stats.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lilhelmer/Documents/Statistical Computing 2016/MLBDATA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lilhelmer/Documents/Statistical Computing 2016/MLBDATA/MLB-Postseason-Simulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771E4999-060D-A947-8F79-B9024DBDC700}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rangers" sheetId="5" r:id="rId1"/>
@@ -33,7 +34,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rangers!$A$1:$Q$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">redsox!$A$1:$Q$10</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -172,7 +173,7 @@
   </si>
   <si>
     <t>order</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Shin-Soo Choo*\choosh01</t>
@@ -182,7 +183,7 @@
   </si>
   <si>
     <t>order</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sandy Leon#\leonsa01</t>
@@ -216,7 +217,7 @@
   </si>
   <si>
     <t>order</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Russell Martin\martiru01</t>
@@ -250,7 +251,7 @@
   </si>
   <si>
     <t>order</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Anthony Rizzo*\rizzoan01</t>
@@ -278,7 +279,7 @@
   </si>
   <si>
     <t>order</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Daniel Murphy*\murphda08</t>
@@ -306,7 +307,7 @@
   </si>
   <si>
     <t>order</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Yasmani Grandal#\grandya01</t>
@@ -334,7 +335,7 @@
   </si>
   <si>
     <t>order</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Buster Posey\poseybu01</t>
@@ -392,26 +393,26 @@
   </si>
   <si>
     <t>P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -419,11 +420,6 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
     </font>
     <font>
       <sz val="9"/>
@@ -451,12 +447,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -478,13 +484,14 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -496,6 +503,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -763,4940 +773,4944 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="19">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="19">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>33</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>48</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>210</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>178</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>27</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>43</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>7</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>7</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>17</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>6</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>3</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>25</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="19">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>30</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>156</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>677</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>625</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>107</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>178</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>29</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>3</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>22</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>86</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>21</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>6</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>44</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="19">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>39</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>52</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>206</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>193</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>23</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>54</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>12</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>7</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>29</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>1</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>0</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>13</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="19">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>37</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>153</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>640</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>583</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>89</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>175</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>31</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>1</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>32</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>104</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>1</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>1</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
         <v>48</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="19">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>22</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>150</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>632</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>605</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>89</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>164</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>33</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>4</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>33</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>88</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>14</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>7</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <v>19</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="19">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>30</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>147</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>503</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>460</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>49</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>107</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>21</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>22</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>60</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>1</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>0</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="3">
         <v>35</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="3">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="19">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>27</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>147</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>568</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>506</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>75</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>153</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>31</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>7</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>8</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>69</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>24</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>8</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <v>47</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="19">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>21</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>145</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>568</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>516</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>59</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>137</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>13</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>3</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>20</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>64</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>2</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <v>39</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="3">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="19">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>32</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>57</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>170</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>147</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>21</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>33</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>11</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>9</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>20</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>1</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>15</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="19">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="19">
       <c r="A2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>2818</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>11323</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>10097</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>1539</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>2780</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>513</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>94</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>264</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>932</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>390</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <v>142</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="2">
         <v>1012</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <v>2042</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="19">
       <c r="A3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2803</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>11069</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>9960</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>1486</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>2656</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>501</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>78</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>303</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>1110</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>218</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>77</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>917</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>2132</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="19">
       <c r="A4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2826</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>10793</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>9538</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>1417</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>2638</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>554</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>51</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>415</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>1469</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>142</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>48</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>1032</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>2138</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="19">
       <c r="A5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>2910</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>10532</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>9369</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>1371</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>2433</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>485</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>46</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>428</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>1474</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>117</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>44</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>959</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>2185</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="19">
       <c r="A6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>2985</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>10298</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>9268</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>1270</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>2455</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>499</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>51</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>388</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>1395</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>116</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>58</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <v>844</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <v>2161</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="19">
       <c r="A7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>3191</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>10064</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>9045</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>1064</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>2311</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>456</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>42</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>297</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>1168</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>118</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>54</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <v>810</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <v>2211</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="19">
       <c r="A8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>3222</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>9782</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>8806</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>986</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>2188</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>431</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>52</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>235</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>1025</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>132</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>50</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <v>788</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="2">
         <v>2038</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="19">
       <c r="A9" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>3713</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>9500</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>8405</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>928</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>2024</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>399</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>58</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>200</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>973</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>89</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <v>43</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="2">
         <v>848</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="2">
         <v>2036</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="19">
       <c r="A10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>10722</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>9179</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>8148</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>713</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>1492</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>262</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>30</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>127</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>703</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <v>66</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <v>37</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="2">
         <v>513</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="2">
         <v>2943</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:AB1048576"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="19">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="19">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>30</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>158</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>688</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>582</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>89</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>151</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>31</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>3</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>34</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>87</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>5</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>2</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>99</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="19">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>29</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>156</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>688</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>610</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>91</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>168</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>41</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>4</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>23</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>82</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>15</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>3</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>60</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="19">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>22</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>158</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>684</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>604</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>99</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>182</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>30</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>3</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>15</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>78</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>19</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>5</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>57</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="19">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>34</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>150</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>645</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>557</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>92</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>133</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>22</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>1</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>34</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>101</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>5</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>1</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
         <v>78</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="19">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>23</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>152</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>618</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>565</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>84</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>176</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>46</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>3</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>11</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>76</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>22</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>7</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <v>44</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="19">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>27</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>126</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>418</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>385</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>43</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>110</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>25</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>5</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>8</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>57</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>6</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>0</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="3">
         <v>23</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="19">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>37</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>73</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>259</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>238</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>19</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>49</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>9</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>7</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>25</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <v>15</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="19">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>25</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>116</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>365</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>321</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>52</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>95</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>18</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>5</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>14</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>43</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>6</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>3</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <v>36</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="3">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="19">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>27</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>61</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>184</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>153</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>14</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>28</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>6</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>1</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>3</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>17</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>23</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="19">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="19">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>23</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>158</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>730</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>672</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>122</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>214</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>42</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>5</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>31</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>113</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>26</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>4</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>49</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="19">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>32</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>154</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>698</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>633</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>105</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>201</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>36</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>15</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>74</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>7</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>4</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>61</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="19">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>23</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>157</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>719</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>652</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>115</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>192</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>34</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>21</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>89</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>13</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>4</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>58</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="19">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>40</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>151</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>626</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>537</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>79</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>169</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>48</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>1</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>38</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>127</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>2</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>0</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
         <v>80</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="19">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>32</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>147</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>620</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>549</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>81</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>157</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>28</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>1</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>30</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>111</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>9</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>3</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <v>60</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="19">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>26</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>145</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>530</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>480</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>63</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>116</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>34</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>2</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>16</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>71</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>5</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>1</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="3">
         <v>43</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="3">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="19">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>28</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>94</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>324</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>290</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>45</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>74</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>16</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>7</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>34</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>4</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>3</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <v>27</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="19">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>27</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>78</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>283</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>252</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>36</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>78</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>17</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>2</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>7</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>35</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <v>23</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="3">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="19">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>26</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>156</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>636</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>558</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>94</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>149</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>30</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>7</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>26</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>87</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>9</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>2</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>63</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <v>143</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="19">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="19">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>25</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>101</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>432</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>410</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>54</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>123</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>28</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>11</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>50</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>4</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>1</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>20</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="19">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>30</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>155</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>700</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>577</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>122</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>164</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>32</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>5</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>37</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>99</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>7</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>1</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>109</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="19">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>33</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>160</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>702</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>601</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>99</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>158</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>34</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>42</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>127</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>2</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>0</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>87</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="19">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>29</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>140</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>558</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>490</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>70</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>124</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>32</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>3</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>24</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>57</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>1</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>2</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
         <v>59</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="19">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>31</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>131</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>544</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>492</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>54</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>125</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>21</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>24</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>79</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>1</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>0</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <v>43</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="19">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>33</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>137</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>535</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>455</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>62</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>105</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>16</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>20</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>74</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>2</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>1</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="3">
         <v>64</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="3">
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="19">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>27</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>146</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>584</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>548</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>59</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>146</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>35</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>2</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>7</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>53</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>14</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>6</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <v>24</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="19">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>28</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>77</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>196</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>183</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>13</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>34</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>9</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>2</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>3</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>12</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>1</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>1</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <v>9</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="19">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>30</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>104</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>306</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>279</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>35</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>75</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>13</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>2</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>4</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>19</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>2</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>2</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>22</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="27.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="19">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="19">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>30</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>125</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>551</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>456</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>84</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>126</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>25</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>7</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>13</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>48</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>13</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>4</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>79</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="19">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>24</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>155</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>699</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>603</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>121</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>176</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>35</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>3</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>39</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>102</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>8</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>5</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>75</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="19">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>26</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>155</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>676</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>583</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>94</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>170</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>43</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>4</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>32</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>109</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>3</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>5</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>74</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="19">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>35</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>147</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>631</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>523</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>94</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>142</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>31</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>3</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>18</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>76</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>6</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>4</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
         <v>96</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="19">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>22</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>151</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>598</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>525</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>67</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>125</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>25</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>3</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>21</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>95</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>5</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>1</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <v>55</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="19">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>26</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>142</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>592</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>530</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>61</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>122</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>27</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>1</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>7</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>49</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>11</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>4</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="3">
         <v>54</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="3">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="19">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>23</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>142</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>450</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>421</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>50</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>115</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>19</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>1</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>14</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>59</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>12</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>3</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <v>15</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="19">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>39</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>67</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>205</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>166</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>24</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>38</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>6</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>10</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>32</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>1</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <v>30</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="19">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E10">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
         <v>10722</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>9179</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>8148</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>713</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>1492</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>262</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>30</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>127</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>703</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>66</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>37</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>513</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <v>2943</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="19">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="19">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>23</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>73</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>324</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>307</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>53</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>105</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>14</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>8</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>13</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>40</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>33</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>6</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>14</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="19">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>37</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>143</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>606</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>525</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>84</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>128</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>28</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>0</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>21</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>69</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>5</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>1</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>71</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="19">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>23</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>147</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>627</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>506</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>84</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>123</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>24</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>2</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>24</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>86</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>21</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>10</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>108</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="19">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>31</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>142</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>582</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>531</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>88</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>184</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>47</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>5</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>25</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>104</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>5</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>3</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
         <v>35</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="19">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>26</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>156</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>647</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>567</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>91</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>153</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>38</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>2</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>20</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>85</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>12</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>6</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <v>65</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="19">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>28</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>131</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>523</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>482</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>58</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>148</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>25</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>22</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>80</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>0</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>0</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="3">
         <v>35</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="3">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="19">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>29</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>157</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>601</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>516</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>66</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>108</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>15</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>24</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>72</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>9</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>2</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <v>54</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="19">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>31</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>39</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>114</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>99</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>10</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>23</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>3</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>1</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>3</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>8</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <v>12</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="19">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E10">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
         <v>10722</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>9179</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>8148</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>713</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>1492</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>262</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>30</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>127</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>703</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>66</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>37</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>513</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <v>2943</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B10" sqref="A1:Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="19">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="19">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>37</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>138</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>565</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>512</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>79</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>129</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>26</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>3</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>14</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>52</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>2</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>2</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>40</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="19">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>22</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>157</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>687</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>627</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>105</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>193</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>40</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>5</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>26</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>72</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>3</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>3</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>54</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="19">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>31</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>151</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>622</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>556</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>79</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>153</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>34</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>3</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>27</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>90</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>4</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>1</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>48</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="19">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>34</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>156</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>633</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>568</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>69</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>162</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>31</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>18</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>90</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>0</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>2</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
         <v>55</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="19">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>27</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>126</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>457</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>390</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>49</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>89</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>14</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>1</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>27</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>72</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>1</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>3</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <v>64</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="19">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>24</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>137</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>476</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>406</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>64</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>100</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>26</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>25</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>68</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>6</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>2</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="3">
         <v>63</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="19">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>32</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>146</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>543</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>487</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>65</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>124</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>26</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>2</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>8</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>40</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>10</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>2</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <v>50</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="19">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>35</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>53</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>161</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>139</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>8</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>27</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>5</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>1</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>13</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>1</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>1</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <v>16</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="19">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="2">
+      <c r="D10" s="3"/>
+      <c r="E10" s="1">
         <v>10722</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>9179</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>8148</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>713</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>1492</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>262</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>30</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>127</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>703</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <v>66</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="1">
         <v>37</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="1">
         <v>513</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="1">
         <v>2943</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="19">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="19">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>32</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>143</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>637</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>572</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>70</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>152</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>23</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>5</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>11</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>53</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>12</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>7</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>53</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="19">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>25</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>127</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>526</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>464</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>67</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>111</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>21</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>7</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>10</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>62</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>5</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>0</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>50</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="19">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>29</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>146</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>614</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>539</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>82</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>155</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>33</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>2</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>14</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>80</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>6</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>1</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>64</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="19">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>33</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>106</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>442</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>395</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>58</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>114</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>23</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>1</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>13</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>57</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>1</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>1</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
         <v>43</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="19">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>29</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>155</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>623</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>553</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>67</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>152</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>28</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>11</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>12</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>84</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>7</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>0</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <v>57</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="19">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>28</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>156</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>655</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>542</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>77</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>149</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>41</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>8</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>17</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>82</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>0</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>4</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="3">
         <v>104</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="3">
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="19">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>27</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>63</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>151</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>127</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>22</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>30</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>3</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>1</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>5</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>14</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>1</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <v>19</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="19">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>24</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>75</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>184</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>173</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>17</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>41</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>7</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>5</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>19</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>1</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <v>10</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="19">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="2">
+      <c r="D10" s="3"/>
+      <c r="E10" s="1">
         <v>10722</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>9179</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>8148</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>713</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>1492</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>262</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>30</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>127</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>703</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <v>66</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="1">
         <v>37</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="1">
         <v>513</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="1">
         <v>2943</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" ht="19">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="2" spans="1:13" ht="19">
+      <c r="A2" s="3">
         <v>228</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>600</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>541</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>71</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>139</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>27</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>19</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>68</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>8</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>3</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>48</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>124</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>